--- a/swings/2021-11-22/KUCOIN_SPOT_GENS_USDT.xlsx
+++ b/swings/2021-11-22/KUCOIN_SPOT_GENS_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>0.11778</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -659,6 +668,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>0.119151</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -713,6 +725,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O5" t="n">
+        <v>0.117779</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -765,6 +780,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -819,6 +835,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O7" t="n">
+        <v>0.119195</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -873,6 +892,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O8" t="n">
+        <v>0.117385</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -925,6 +947,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -977,6 +1000,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1029,6 +1053,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1083,6 +1108,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>0.1197</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1135,6 +1163,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1189,6 +1218,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>0.119</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1243,6 +1275,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O15" t="n">
+        <v>0.119726</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1297,6 +1332,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>0.119</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1351,6 +1389,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O17" t="n">
+        <v>0.119726</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1403,6 +1444,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1455,6 +1497,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1509,6 +1552,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O20" t="n">
+        <v>0.117394</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1563,6 +1609,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O21" t="n">
+        <v>0.118676</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1615,6 +1664,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1669,6 +1719,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>0.107997</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1721,6 +1774,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1773,6 +1827,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1825,6 +1880,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1879,6 +1935,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O27" t="n">
+        <v>0.114344</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1931,6 +1990,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1983,6 +2043,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2037,6 +2098,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>0.111199</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2089,6 +2153,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2143,6 +2208,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O32" t="n">
+        <v>0.1131</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2195,6 +2263,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2249,6 +2318,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O34" t="n">
+        <v>0.112</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2303,6 +2375,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O35" t="n">
+        <v>0.118873</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2357,6 +2432,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O36" t="n">
+        <v>0.112991</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2411,6 +2489,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>0.114225</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2463,6 +2544,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2515,6 +2597,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2567,6 +2650,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2619,6 +2703,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2671,6 +2756,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2725,6 +2811,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O43" t="n">
+        <v>0.112291</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2779,6 +2868,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>0.112924</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2833,6 +2925,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>0.1106</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2885,6 +2980,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2937,6 +3033,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2991,6 +3088,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O48" t="n">
+        <v>0.111609</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3043,6 +3143,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3095,6 +3196,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3149,6 +3251,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O51" t="n">
+        <v>0.107996</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3201,6 +3306,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3255,6 +3361,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3309,6 +3418,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O54" t="n">
+        <v>0.108812</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3363,6 +3475,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3417,6 +3532,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O56" t="n">
+        <v>0.109958</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3471,6 +3589,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>0.1116</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3525,6 +3646,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O58" t="n">
+        <v>0.1115</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3577,6 +3701,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3629,6 +3754,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3681,6 +3807,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3733,6 +3860,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3785,6 +3913,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3837,6 +3966,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3889,6 +4019,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3941,6 +4072,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3995,6 +4127,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>0.115203</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4047,6 +4182,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4101,6 +4237,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O69" t="n">
+        <v>0.112825</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4153,6 +4292,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4205,6 +4345,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4257,6 +4398,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4309,6 +4451,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4361,6 +4504,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4413,6 +4557,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4465,6 +4610,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4517,6 +4663,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4569,6 +4716,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4621,6 +4769,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4673,6 +4822,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4725,6 +4875,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4777,6 +4928,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4829,6 +4981,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4881,6 +5034,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4933,6 +5087,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4987,6 +5142,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>0.117897</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5039,6 +5197,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5093,6 +5252,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>0.116565</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5145,6 +5307,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5197,6 +5360,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5249,6 +5413,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5303,6 +5468,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>0.118195</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5355,6 +5523,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5409,6 +5578,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>0.116813</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5463,6 +5635,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>0.119151</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5515,6 +5690,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5567,6 +5743,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5621,6 +5798,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O98" t="n">
+        <v>0.116771</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5673,6 +5853,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5727,6 +5908,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O100" t="n">
+        <v>0.118808</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5779,6 +5963,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5831,6 +6016,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5883,6 +6069,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5935,6 +6122,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5989,6 +6177,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>0.115943</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6041,6 +6232,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6093,6 +6285,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6147,6 +6340,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>0.1176</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6199,6 +6395,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6251,6 +6448,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6305,6 +6503,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O111" t="n">
+        <v>0.114</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6359,6 +6560,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O112" t="n">
+        <v>0.115684</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6411,6 +6615,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6463,6 +6668,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6517,6 +6723,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O115" t="n">
+        <v>0.108688</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6569,6 +6778,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6621,6 +6831,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6675,6 +6886,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O118" t="n">
+        <v>0.115136</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6729,6 +6943,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>0.113961</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6781,6 +6998,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6835,6 +7053,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>0.1158</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6889,6 +7110,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>0.112648</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6943,6 +7167,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>0.113973</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6997,6 +7224,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>0.113454</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7049,6 +7279,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7103,6 +7334,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O126" t="n">
+        <v>0.114009</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7157,6 +7391,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O127" t="n">
+        <v>0.1124</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7211,6 +7448,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>0.113422</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7265,6 +7505,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O129" t="n">
+        <v>0.111449</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7319,6 +7562,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O130" t="n">
+        <v>0.113973</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7371,6 +7617,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7423,6 +7670,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7475,6 +7723,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7527,6 +7776,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7581,6 +7831,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O135" t="n">
+        <v>0.110101</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7633,6 +7886,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7687,6 +7941,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O137" t="n">
+        <v>0.111468</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7739,6 +7996,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7793,6 +8051,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O139" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7847,6 +8108,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O140" t="n">
+        <v>0.111675</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7899,6 +8163,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7951,6 +8216,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8005,6 +8271,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O143" t="n">
+        <v>0.110869</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8059,6 +8328,9 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>0.110965</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8111,6 +8383,7 @@
           <t>GENSUSDT</t>
         </is>
       </c>
+      <c r="O145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
